--- a/author_contributions.xlsx
+++ b/author_contributions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28706"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olavobohreramaral/Dropbox/Brazilian Reproducibility Initiative/Manuscrito/Documents for deposit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502A55E6-3A36-0142-B36F-6BC64FC2923C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F351D8A9-AD98-524E-8433-76C554ABF0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="28260" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="883">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="884">
   <si>
     <t>Lab</t>
   </si>
@@ -1403,9 +1403,6 @@
     <t>PCR23, PCR40, PCR139</t>
   </si>
   <si>
-    <t>Faculty of Applied Sciences - University of Campinas, Campinas, Brazil</t>
-  </si>
-  <si>
     <t>https://orcid.org/0000-0001-5185-0185</t>
   </si>
   <si>
@@ -2685,13 +2682,19 @@
   </si>
   <si>
     <t>http://lattes.cnpq.br/4337128261527797</t>
+  </si>
+  <si>
+    <t>D'Or Institute for Research and Education - Rio de Janeiro, Brazil; Department of Genetics, Institute of Biology, Federal University of Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>Faculty of Applied Sciences - University of Campinas, Limeira, Brazil</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2827,7 +2830,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3132,26 +3135,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I124" sqref="I124"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="77.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="34.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="77.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="34.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3180,7 +3183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -3209,7 +3212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -3238,7 +3241,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -3267,7 +3270,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -3296,7 +3299,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -3325,7 +3328,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -3354,7 +3357,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3383,7 +3386,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3412,7 +3415,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3441,7 +3444,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3470,7 +3473,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -3499,7 +3502,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>61</v>
       </c>
@@ -3528,7 +3531,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>61</v>
       </c>
@@ -3557,7 +3560,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
@@ -3586,7 +3589,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>76</v>
       </c>
@@ -3615,7 +3618,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>76</v>
       </c>
@@ -3644,7 +3647,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>76</v>
       </c>
@@ -3673,7 +3676,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>90</v>
       </c>
@@ -3702,7 +3705,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>90</v>
       </c>
@@ -3731,7 +3734,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>101</v>
       </c>
@@ -3760,7 +3763,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>101</v>
       </c>
@@ -3789,7 +3792,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>101</v>
       </c>
@@ -3818,7 +3821,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>101</v>
       </c>
@@ -3847,7 +3850,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>117</v>
       </c>
@@ -3876,7 +3879,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>117</v>
       </c>
@@ -3905,7 +3908,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>126</v>
       </c>
@@ -3934,7 +3937,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>117</v>
       </c>
@@ -3963,7 +3966,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>136</v>
       </c>
@@ -3992,7 +3995,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>136</v>
       </c>
@@ -4021,7 +4024,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>136</v>
       </c>
@@ -4050,7 +4053,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>148</v>
       </c>
@@ -4079,7 +4082,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>154</v>
       </c>
@@ -4108,7 +4111,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>148</v>
       </c>
@@ -4137,7 +4140,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>148</v>
       </c>
@@ -4166,7 +4169,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>166</v>
       </c>
@@ -4195,7 +4198,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>166</v>
       </c>
@@ -4224,7 +4227,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>166</v>
       </c>
@@ -4253,7 +4256,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>177</v>
       </c>
@@ -4282,7 +4285,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>177</v>
       </c>
@@ -4311,7 +4314,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>177</v>
       </c>
@@ -4340,7 +4343,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>188</v>
       </c>
@@ -4369,7 +4372,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>188</v>
       </c>
@@ -4398,7 +4401,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>188</v>
       </c>
@@ -4427,7 +4430,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>201</v>
       </c>
@@ -4456,7 +4459,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>201</v>
       </c>
@@ -4485,7 +4488,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>201</v>
       </c>
@@ -4514,7 +4517,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>201</v>
       </c>
@@ -4543,7 +4546,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>217</v>
       </c>
@@ -4572,7 +4575,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>217</v>
       </c>
@@ -4601,7 +4604,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>217</v>
       </c>
@@ -4630,7 +4633,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>217</v>
       </c>
@@ -4659,7 +4662,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>233</v>
       </c>
@@ -4688,7 +4691,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>233</v>
       </c>
@@ -4717,7 +4720,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>242</v>
       </c>
@@ -4746,7 +4749,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>242</v>
       </c>
@@ -4775,7 +4778,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>242</v>
       </c>
@@ -4804,7 +4807,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>242</v>
       </c>
@@ -4833,7 +4836,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>242</v>
       </c>
@@ -4862,7 +4865,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>242</v>
       </c>
@@ -4891,7 +4894,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>242</v>
       </c>
@@ -4920,7 +4923,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>270</v>
       </c>
@@ -4949,7 +4952,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>270</v>
       </c>
@@ -4978,7 +4981,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>270</v>
       </c>
@@ -5007,7 +5010,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>270</v>
       </c>
@@ -5036,7 +5039,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>286</v>
       </c>
@@ -5065,7 +5068,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>286</v>
       </c>
@@ -5094,7 +5097,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:12" s="5" customFormat="1">
+    <row r="68" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>286</v>
       </c>
@@ -5123,7 +5126,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:12" s="5" customFormat="1" ht="15.75" customHeight="1">
+    <row r="69" spans="1:12" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>286</v>
       </c>
@@ -5155,7 +5158,7 @@
       <c r="K69" s="9"/>
       <c r="L69" s="9"/>
     </row>
-    <row r="70" spans="1:12" s="5" customFormat="1">
+    <row r="70" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>302</v>
       </c>
@@ -5184,7 +5187,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>302</v>
       </c>
@@ -5213,7 +5216,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>302</v>
       </c>
@@ -5242,7 +5245,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>302</v>
       </c>
@@ -5271,7 +5274,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>317</v>
       </c>
@@ -5300,7 +5303,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>317</v>
       </c>
@@ -5329,7 +5332,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>328</v>
       </c>
@@ -5358,7 +5361,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>328</v>
       </c>
@@ -5387,7 +5390,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>328</v>
       </c>
@@ -5416,7 +5419,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>328</v>
       </c>
@@ -5445,7 +5448,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>328</v>
       </c>
@@ -5474,7 +5477,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>328</v>
       </c>
@@ -5503,7 +5506,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>356</v>
       </c>
@@ -5532,7 +5535,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>356</v>
       </c>
@@ -5561,7 +5564,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>356</v>
       </c>
@@ -5590,7 +5593,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>367</v>
       </c>
@@ -5619,7 +5622,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>367</v>
       </c>
@@ -5648,7 +5651,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>367</v>
       </c>
@@ -5677,7 +5680,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>367</v>
       </c>
@@ -5706,7 +5709,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>367</v>
       </c>
@@ -5735,7 +5738,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>367</v>
       </c>
@@ -5764,7 +5767,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>392</v>
       </c>
@@ -5793,7 +5796,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>392</v>
       </c>
@@ -5822,7 +5825,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>392</v>
       </c>
@@ -5851,7 +5854,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>404</v>
       </c>
@@ -5880,7 +5883,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>404</v>
       </c>
@@ -5909,7 +5912,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>404</v>
       </c>
@@ -5938,7 +5941,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>404</v>
       </c>
@@ -5967,7 +5970,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>418</v>
       </c>
@@ -5996,7 +5999,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="14.25" customHeight="1">
+    <row r="99" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>418</v>
       </c>
@@ -6025,7 +6028,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>418</v>
       </c>
@@ -6054,7 +6057,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>418</v>
       </c>
@@ -6083,7 +6086,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>418</v>
       </c>
@@ -6112,7 +6115,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>437</v>
       </c>
@@ -6141,7 +6144,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>437</v>
       </c>
@@ -6170,7 +6173,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>437</v>
       </c>
@@ -6199,7 +6202,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>437</v>
       </c>
@@ -6228,7 +6231,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>452</v>
       </c>
@@ -6242,14 +6245,14 @@
         <v>454</v>
       </c>
       <c r="E107" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="F107" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="F107" s="1" t="s">
+      <c r="G107" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="G107" s="1" t="s">
-        <v>457</v>
-      </c>
       <c r="H107" s="1" t="s">
         <v>11</v>
       </c>
@@ -6257,28 +6260,28 @@
         <v>68</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>452</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D108" s="1" t="s">
+      <c r="E108" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="F108" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="E108" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="F108" s="1" t="s">
+      <c r="G108" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="G108" s="1" t="s">
-        <v>461</v>
-      </c>
       <c r="H108" s="1" t="s">
         <v>11</v>
       </c>
@@ -6286,12 +6289,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>452</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>454</v>
@@ -6300,56 +6303,56 @@
         <v>454</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>455</v>
+        <v>883</v>
       </c>
       <c r="F109" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="G109" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="G109" s="1" t="s">
+      <c r="H109" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="H109" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
-      <c r="A110" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="D110" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="D110" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E110" s="1" t="s">
+      <c r="F110" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="F110" s="1" t="s">
+      <c r="G110" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="G110" s="1" t="s">
+      <c r="H110" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>470</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I110" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
-      <c r="A111" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>471</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>11</v>
@@ -6358,216 +6361,216 @@
         <v>277</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F111" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="G111" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="G111" s="1" t="s">
+      <c r="H111" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="H111" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
-      <c r="A112" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B112" s="1" t="s">
+      <c r="C112" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F112" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D112" s="1" t="s">
+      <c r="G112" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="E112" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
-      <c r="A113" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B113" s="1" t="s">
+      <c r="F113" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="G113" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E114" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="D113" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
-      <c r="A114" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B114" s="1" t="s">
+      <c r="F114" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="F114" s="1" t="s">
+      <c r="G114" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="G114" s="1" t="s">
+      <c r="H114" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="H114" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I114" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
-      <c r="A115" s="1" t="s">
+      <c r="B115" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="C115" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>485</v>
-      </c>
       <c r="D115" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F115" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="G115" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="G115" s="1" t="s">
+      <c r="H115" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="H115" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I115" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
-      <c r="A116" s="1" t="s">
+      <c r="B116" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="C116" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D116" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D116" s="1" t="s">
+      <c r="E116" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="E116" s="1" t="s">
+      <c r="F116" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="F116" s="1" t="s">
+      <c r="G116" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="G116" s="1" t="s">
+      <c r="H116" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="H116" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I116" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
-      <c r="A117" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="B117" s="1" t="s">
+      <c r="C117" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D117" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D117" s="1" t="s">
+      <c r="E117" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="E117" s="1" t="s">
+      <c r="F117" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="F117" s="1" t="s">
+      <c r="G117" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="G117" s="1" t="s">
+      <c r="H117" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="H117" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I117" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
-      <c r="A118" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="B118" s="1" t="s">
+      <c r="C118" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="D118" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="E118" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="F118" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="E118" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="F118" s="1" t="s">
+      <c r="G118" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>503</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>11</v>
@@ -6576,12 +6579,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>11</v>
@@ -6590,158 +6593,158 @@
         <v>263</v>
       </c>
       <c r="E119" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="F119" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="F119" s="1" t="s">
+      <c r="G119" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="G119" s="1" t="s">
+      <c r="H119" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="H119" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I119" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
-      <c r="A120" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="B120" s="1" t="s">
+      <c r="C120" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="D120" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="E120" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="F120" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="E120" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="F120" s="1" t="s">
+      <c r="G120" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="G120" s="1" t="s">
+      <c r="H120" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="H120" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I120" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
-      <c r="A121" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="B121" s="1" t="s">
+      <c r="C121" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="D121" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="F121" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="D121" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="F121" s="1" t="s">
+      <c r="G121" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="G121" s="1" t="s">
+      <c r="H121" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="H121" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I121" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
-      <c r="A122" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="B122" s="1" t="s">
+      <c r="C122" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="F122" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="C122" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="F122" s="1" t="s">
+      <c r="G122" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="G122" s="1" t="s">
+      <c r="H122" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="H122" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I122" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
-      <c r="A123" s="1" t="s">
+      <c r="B123" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="C123" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="D123" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="E123" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="D123" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="E123" s="1" t="s">
+      <c r="F123" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="F123" s="1" t="s">
+      <c r="G123" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="G123" s="1" t="s">
+      <c r="H123" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="H123" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I123" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
-      <c r="A124" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="B124" s="1" t="s">
+      <c r="C124" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E124" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="C124" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E124" s="1" t="s">
+      <c r="F124" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="F124" s="1" t="s">
+      <c r="G124" s="1" t="s">
         <v>528</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>529</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>11</v>
@@ -6750,143 +6753,143 @@
         <v>116</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B125" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="F125" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="C125" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="F125" s="1" t="s">
+      <c r="G125" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="G125" s="1" t="s">
+      <c r="H125" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="H125" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I125" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
-      <c r="A126" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="B126" s="1" t="s">
+      <c r="C126" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="F126" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="F126" s="1" t="s">
+      <c r="G126" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="G126" s="1" t="s">
+      <c r="H126" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="H126" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I126" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
-      <c r="A127" s="1" t="s">
+      <c r="B127" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="C127" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D127" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="C127" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D127" s="1" t="s">
+      <c r="E127" s="1" t="s">
         <v>538</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>539</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>94</v>
       </c>
       <c r="G127" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="H127" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I127" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
-      <c r="A128" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="B128" s="1" t="s">
+      <c r="C128" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="F128" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="C128" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="F128" s="1" t="s">
+      <c r="G128" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="G128" s="1" t="s">
+      <c r="H128" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="H128" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I128" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
-      <c r="A129" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="B129" s="1" t="s">
+      <c r="C129" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="F129" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="C129" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="F129" s="1" t="s">
+      <c r="G129" s="1" t="s">
         <v>545</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>546</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>11</v>
@@ -6895,56 +6898,56 @@
         <v>116</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="C130" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="D130" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E130" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="F130" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E131" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="E130" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="H130" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I130" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
-      <c r="A131" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="B131" s="1" t="s">
+      <c r="F131" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="C131" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="F131" s="1" t="s">
+      <c r="G131" s="1" t="s">
         <v>554</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>555</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>11</v>
@@ -6953,47 +6956,47 @@
         <v>116</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B132" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="F132" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="C132" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="F132" s="1" t="s">
+      <c r="G132" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="G132" s="1" t="s">
+      <c r="H132" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="H132" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I132" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
-      <c r="A133" s="1" t="s">
+      <c r="B133" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="C133" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="C133" s="1" t="s">
-        <v>561</v>
-      </c>
       <c r="D133" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>151</v>
@@ -7002,94 +7005,94 @@
         <v>94</v>
       </c>
       <c r="G133" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="H133" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I133" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
-      <c r="A134" s="1" t="s">
+      <c r="B134" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="C134" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="D134" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E134" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="F134" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E135" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="E134" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="H134" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I134" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
-      <c r="A135" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="B135" s="1" t="s">
+      <c r="F135" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="G135" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E136" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="D135" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="H135" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I135" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
-      <c r="A136" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="B136" s="1" t="s">
+      <c r="F136" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="C136" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="F136" s="1" t="s">
+      <c r="G136" s="1" t="s">
         <v>573</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>574</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>11</v>
@@ -7098,99 +7101,99 @@
         <v>116</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="C137" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="D137" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E137" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="D137" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E137" s="1" t="s">
+      <c r="F137" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="F137" s="1" t="s">
+      <c r="G137" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="G137" s="1" t="s">
+      <c r="H137" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="H137" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I137" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
-      <c r="A138" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="B138" s="1" t="s">
+      <c r="C138" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D138" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="C138" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D138" s="1" t="s">
+      <c r="E138" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="F138" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="E138" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="F138" s="1" t="s">
+      <c r="G138" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="G138" s="1" t="s">
+      <c r="H138" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="H138" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I138" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
-      <c r="A139" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="B139" s="1" t="s">
+      <c r="C139" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="F139" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="C139" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="F139" s="1" t="s">
+      <c r="G139" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="G139" s="1" t="s">
+      <c r="H139" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>587</v>
-      </c>
-      <c r="H139" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I139" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
-      <c r="A140" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>588</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>11</v>
@@ -7199,27 +7202,27 @@
         <v>263</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F140" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G140" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="G140" s="1" t="s">
+      <c r="H140" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>590</v>
-      </c>
-      <c r="H140" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I140" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
-      <c r="A141" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>591</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>11</v>
@@ -7228,216 +7231,216 @@
         <v>319</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F141" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="G141" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="G141" s="1" t="s">
+      <c r="H141" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="H141" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I141" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
-      <c r="A142" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="B142" s="1" t="s">
+      <c r="C142" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="F142" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="G142" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="E143" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="D142" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="G142" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="H142" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I142" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
-      <c r="A143" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="B143" s="1" t="s">
+      <c r="F143" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="C143" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="F143" s="1" t="s">
+      <c r="G143" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="G143" s="1" t="s">
+      <c r="H143" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="H143" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I143" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
-      <c r="A144" s="1" t="s">
+      <c r="B144" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="C144" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="D144" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E144" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="D144" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E144" s="1" t="s">
+      <c r="F144" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="F144" s="1" t="s">
+      <c r="G144" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="G144" s="1" t="s">
+      <c r="H144" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="H144" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I144" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
-      <c r="A145" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="B145" s="1" t="s">
+      <c r="C145" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="D145" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="E145" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="F145" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="E145" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="F145" s="1" t="s">
+      <c r="G145" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="G145" s="1" t="s">
+      <c r="H145" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="H145" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I145" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
-      <c r="A146" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="B146" s="1" t="s">
+      <c r="C146" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="F146" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="G146" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="E147" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="D146" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="H146" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I146" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
-      <c r="A147" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="B147" s="1" t="s">
+      <c r="F147" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="C147" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="F147" s="1" t="s">
+      <c r="G147" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="G147" s="1" t="s">
+      <c r="H147" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="H147" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I147" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
-      <c r="A148" s="1" t="s">
+      <c r="B148" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="C148" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="D148" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="E148" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="D148" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="E148" s="1" t="s">
+      <c r="F148" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="F148" s="1" t="s">
+      <c r="G148" s="1" t="s">
         <v>620</v>
-      </c>
-      <c r="G148" s="1" t="s">
-        <v>621</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>11</v>
@@ -7446,27 +7449,27 @@
         <v>89</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B149" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="F149" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="C149" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="F149" s="1" t="s">
+      <c r="G149" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="G149" s="1" t="s">
-        <v>624</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>11</v>
@@ -7475,56 +7478,56 @@
         <v>116</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="C150" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="C150" s="1" t="s">
-        <v>627</v>
-      </c>
       <c r="D150" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>130</v>
       </c>
       <c r="F150" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G150" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="G150" s="1" t="s">
+      <c r="H150" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B151" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="H150" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I150" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
-      <c r="A151" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>630</v>
-      </c>
       <c r="C151" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>130</v>
       </c>
       <c r="F151" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G151" s="1" t="s">
         <v>631</v>
-      </c>
-      <c r="G151" s="1" t="s">
-        <v>632</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>11</v>
@@ -7533,15 +7536,15 @@
         <v>116</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>11</v>
@@ -7550,10 +7553,10 @@
         <v>130</v>
       </c>
       <c r="F152" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="G152" s="1" t="s">
         <v>634</v>
-      </c>
-      <c r="G152" s="1" t="s">
-        <v>635</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>11</v>
@@ -7562,418 +7565,418 @@
         <v>116</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="C153" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="D153" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E153" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="F153" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E154" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="E153" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="G153" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="H153" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I153" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
-      <c r="A154" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="B154" s="1" t="s">
+      <c r="F154" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="G154" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E155" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="D154" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="F154" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="G154" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="H154" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I154" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
-      <c r="A155" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="B155" s="1" t="s">
+      <c r="F155" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="C155" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="F155" s="1" t="s">
+      <c r="G155" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="G155" s="1" t="s">
+      <c r="H155" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="H155" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I155" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
-      <c r="A156" s="1" t="s">
+      <c r="B156" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="C156" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="D156" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="E156" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="F156" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E157" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="E156" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="F156" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="G156" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="H156" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I156" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
-      <c r="A157" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="B157" s="1" t="s">
+      <c r="F157" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="G157" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="E158" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="D157" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="G157" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="H157" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I157" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
-      <c r="A158" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="B158" s="1" t="s">
+      <c r="F158" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="C158" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="F158" s="1" t="s">
+      <c r="G158" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="G158" s="1" t="s">
+      <c r="H158" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="H158" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I158" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
-      <c r="A159" s="1" t="s">
+      <c r="B159" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="C159" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="C159" s="1" t="s">
+      <c r="D159" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E159" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="D159" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E159" s="1" t="s">
+      <c r="F159" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="F159" s="1" t="s">
+      <c r="G159" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="G159" s="1" t="s">
+      <c r="H159" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="H159" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I159" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
-      <c r="A160" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="B160" s="1" t="s">
+      <c r="C160" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="F160" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="G160" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="E161" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="D160" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="F160" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="G160" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="H160" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I160" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
-      <c r="A161" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="B161" s="1" t="s">
+      <c r="F161" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="C161" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="F161" s="1" t="s">
+      <c r="G161" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="G161" s="1" t="s">
+      <c r="H161" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="H161" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I161" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
-      <c r="A162" s="1" t="s">
+      <c r="B162" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="C162" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="D162" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E162" s="1" t="s">
         <v>674</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>675</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>94</v>
       </c>
       <c r="G162" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="H162" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I162" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
-      <c r="A163" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>677</v>
-      </c>
       <c r="C163" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="E163" s="1" t="s">
         <v>674</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>675</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>94</v>
       </c>
       <c r="G163" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="H163" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I163" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
-      <c r="A164" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>679</v>
-      </c>
       <c r="C164" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E164" s="1" t="s">
         <v>674</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>675</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>94</v>
       </c>
       <c r="G164" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="H164" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I164" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
-      <c r="A165" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>681</v>
-      </c>
       <c r="C165" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E165" s="1" t="s">
         <v>674</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>675</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>94</v>
       </c>
       <c r="G165" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="H165" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I165" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
-      <c r="A166" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="B166" s="1" t="s">
+      <c r="C166" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="F166" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="C166" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="F166" s="1" t="s">
+      <c r="G166" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="G166" s="1" t="s">
+      <c r="H166" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="H166" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I166" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
-      <c r="A167" s="1" t="s">
+      <c r="B167" s="1" t="s">
         <v>686</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>687</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>230</v>
@@ -7982,27 +7985,27 @@
         <v>230</v>
       </c>
       <c r="E167" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="F167" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="F167" s="1" t="s">
+      <c r="G167" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="G167" s="1" t="s">
+      <c r="H167" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B168" s="1" t="s">
         <v>690</v>
-      </c>
-      <c r="H167" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I167" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
-      <c r="A168" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>691</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>230</v>
@@ -8011,27 +8014,27 @@
         <v>230</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F168" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="G168" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="G168" s="1" t="s">
+      <c r="H168" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>693</v>
-      </c>
-      <c r="H168" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I168" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
-      <c r="A169" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>694</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>230</v>
@@ -8040,143 +8043,143 @@
         <v>230</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F169" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="G169" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="G169" s="1" t="s">
+      <c r="H169" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="H169" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I169" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
-      <c r="A170" s="1" t="s">
+      <c r="B170" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="C170" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="D170" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="E170" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="E170" s="1" t="s">
+      <c r="F170" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="F170" s="1" t="s">
+      <c r="G170" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="G170" s="1" t="s">
+      <c r="H170" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="H170" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I170" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
-      <c r="A171" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="B171" s="1" t="s">
+      <c r="C171" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E171" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="F171" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D173" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="D171" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="F171" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="G171" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="H171" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I171" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
-      <c r="A172" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="G172" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="H172" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I172" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
-      <c r="A173" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="B173" s="1" t="s">
+      <c r="E173" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="F173" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="C173" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="F173" s="1" t="s">
+      <c r="G173" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="G173" s="3" t="s">
+      <c r="H173" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="H173" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I173" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
-      <c r="A174" s="1" t="s">
+      <c r="B174" s="1" t="s">
         <v>717</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>718</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>103</v>
@@ -8185,13 +8188,13 @@
         <v>103</v>
       </c>
       <c r="E174" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="F174" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="F174" s="1" t="s">
+      <c r="G174" s="1" t="s">
         <v>720</v>
-      </c>
-      <c r="G174" s="1" t="s">
-        <v>721</v>
       </c>
       <c r="H174" s="1" t="s">
         <v>11</v>
@@ -8200,12 +8203,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>103</v>
@@ -8214,33 +8217,33 @@
         <v>103</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F175" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="G175" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="G175" s="1" t="s">
+      <c r="H175" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="H175" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I175" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
-      <c r="A176" s="1" t="s">
+      <c r="B176" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="C176" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D176" s="1" t="s">
         <v>726</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>727</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>250</v>
@@ -8249,587 +8252,587 @@
         <v>94</v>
       </c>
       <c r="G176" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="H176" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I176" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
-      <c r="A177" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="B177" s="1" t="s">
+      <c r="C177" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D177" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="C177" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D177" s="1" t="s">
+      <c r="E177" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="E177" s="1" t="s">
+      <c r="F177" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="F177" s="1" t="s">
+      <c r="G177" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="G177" s="1" t="s">
+      <c r="H177" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B178" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="H177" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I177" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
-      <c r="A178" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="B178" s="1" t="s">
+      <c r="C178" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="D178" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="F178" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="D178" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="F178" s="1" t="s">
+      <c r="G178" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="G178" s="1" t="s">
+      <c r="H178" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="H178" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I178" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
-      <c r="A179" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="B179" s="1" t="s">
+      <c r="C179" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="F179" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="C179" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="F179" s="1" t="s">
+      <c r="G179" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="G179" s="1" t="s">
+      <c r="H179" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B180" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="H179" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I179" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
-      <c r="A180" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="B180" s="1" t="s">
+      <c r="C180" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="F180" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="C180" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D180" s="1" t="s">
+      <c r="G180" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="E181" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="E180" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="F180" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="G180" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="H180" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I180" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
-      <c r="A181" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="C181" s="1" t="s">
+      <c r="F181" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="D181" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="F181" s="1" t="s">
+      <c r="G181" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="G181" s="1" t="s">
+      <c r="H181" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="H181" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I181" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
-      <c r="A182" s="1" t="s">
+      <c r="B182" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="C182" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="C182" s="1" t="s">
+      <c r="D182" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="E182" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="D182" s="1" t="s">
+      <c r="F182" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="E183" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="E182" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="F182" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="G182" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="H182" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I182" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
-      <c r="A183" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="B183" s="1" t="s">
+      <c r="F183" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="G183" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="H183" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I183" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="E184" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="D183" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="G183" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="H183" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I183" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
-      <c r="A184" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="B184" s="1" t="s">
+      <c r="F184" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="C184" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="F184" s="1" t="s">
+      <c r="G184" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="G184" s="1" t="s">
+      <c r="H184" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="H184" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I184" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
-      <c r="A185" s="1" t="s">
+      <c r="B185" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="C185" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="C185" s="1" t="s">
+      <c r="D185" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="F185" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="D185" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="F185" s="1" t="s">
+      <c r="G185" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="G185" s="1" t="s">
+      <c r="H185" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="H185" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I185" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
-      <c r="A186" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="B186" s="1" t="s">
+      <c r="C186" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="F186" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="C186" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="F186" s="1" t="s">
+      <c r="G186" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="G186" s="1" t="s">
+      <c r="H186" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I186" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="H186" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I186" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
-      <c r="A187" s="1" t="s">
+      <c r="B187" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="C187" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="D187" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="E187" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="D187" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="E187" s="1" t="s">
+      <c r="F187" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="F187" s="1" t="s">
+      <c r="G187" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="G187" s="1" t="s">
+      <c r="H187" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I187" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A188" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="B188" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="H187" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I187" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
-      <c r="A188" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="B188" s="1" t="s">
+      <c r="C188" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="E188" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="C188" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="E188" s="1" t="s">
+      <c r="F188" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="F188" s="1" t="s">
+      <c r="G188" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="G188" s="1" t="s">
+      <c r="H188" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I188" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A189" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="H188" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I188" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
-      <c r="A189" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="B189" s="1" t="s">
+      <c r="C189" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="E189" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="C189" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="E189" s="1" t="s">
+      <c r="F189" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="F189" s="1" t="s">
+      <c r="G189" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="G189" s="1" t="s">
+      <c r="H189" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I189" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="B190" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="H189" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I189" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
-      <c r="A190" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="B190" s="1" t="s">
+      <c r="C190" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="E190" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="C190" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="E190" s="1" t="s">
+      <c r="F190" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="F190" s="1" t="s">
+      <c r="G190" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="G190" s="1" t="s">
+      <c r="H190" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I190" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="H190" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I190" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
-      <c r="A191" s="1" t="s">
+      <c r="B191" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="C191" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="C191" s="1" t="s">
+      <c r="D191" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="E191" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="D191" s="1" t="s">
+      <c r="F191" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="H191" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I191" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I192" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A193" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="E193" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="E191" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="F191" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="G191" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="H191" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I191" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
-      <c r="A192" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="C192" s="1" t="s">
+      <c r="F193" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="H193" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I193" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="E194" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="D192" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="F192" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="G192" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="H192" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I192" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
-      <c r="A193" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="F193" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="G193" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="H193" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I193" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
-      <c r="A194" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="B194" s="1" t="s">
+      <c r="F194" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="C194" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="F194" s="1" t="s">
+      <c r="G194" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="G194" s="1" t="s">
+      <c r="H194" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I194" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="H194" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I194" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
-      <c r="A195" s="1" t="s">
+      <c r="B195" s="1" t="s">
         <v>803</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>804</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>299</v>
       </c>
       <c r="D195" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="E195" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="E195" s="1" t="s">
+      <c r="F195" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="F195" s="1" t="s">
+      <c r="G195" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="G195" s="1" t="s">
+      <c r="H195" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I195" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A196" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="B196" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="H195" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I195" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
-      <c r="A196" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="B196" s="1" t="s">
+      <c r="C196" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="D196" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="C196" s="1" t="s">
+      <c r="E196" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="D196" s="1" t="s">
+      <c r="F196" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="E196" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="F196" s="1" t="s">
+      <c r="G196" s="1" t="s">
         <v>811</v>
-      </c>
-      <c r="G196" s="1" t="s">
-        <v>812</v>
       </c>
       <c r="H196" s="1" t="s">
         <v>11</v>
@@ -8838,114 +8841,114 @@
         <v>100</v>
       </c>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>299</v>
       </c>
       <c r="D197" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="E197" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="E197" s="1" t="s">
-        <v>806</v>
-      </c>
       <c r="F197" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="G197" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="G197" s="1" t="s">
+      <c r="H197" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I197" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A198" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="H197" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I197" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
-      <c r="A198" s="1" t="s">
+      <c r="B198" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="C198" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="C198" s="1" t="s">
+      <c r="D198" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="E198" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="D198" s="1" t="s">
+      <c r="F198" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="H198" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I198" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A199" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="E199" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="E198" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="F198" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="G198" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="H198" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I198" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
-      <c r="A199" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="B199" s="1" t="s">
+      <c r="F199" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="C199" s="1" t="s">
+      <c r="G199" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="H199" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I199" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A200" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="E200" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="D199" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="F199" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="G199" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="H199" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I199" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
-      <c r="A200" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="B200" s="1" t="s">
+      <c r="F200" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="C200" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="F200" s="1" t="s">
+      <c r="G200" s="1" t="s">
         <v>826</v>
-      </c>
-      <c r="G200" s="1" t="s">
-        <v>827</v>
       </c>
       <c r="H200" s="1" t="s">
         <v>11</v>
@@ -8954,56 +8957,56 @@
         <v>116</v>
       </c>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="B201" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="C201" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="D201" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="E201" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="D201" s="1" t="s">
+      <c r="F201" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="G201" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="H201" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I201" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A202" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E202" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="E201" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="F201" s="1" t="s">
-        <v>832</v>
-      </c>
-      <c r="G201" s="4" t="s">
-        <v>833</v>
-      </c>
-      <c r="H201" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I201" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9">
-      <c r="A202" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="B202" s="1" t="s">
+      <c r="F202" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="C202" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="F202" s="1" t="s">
+      <c r="G202" s="1" t="s">
         <v>835</v>
-      </c>
-      <c r="G202" s="1" t="s">
-        <v>836</v>
       </c>
       <c r="H202" s="1" t="s">
         <v>11</v>
@@ -9012,346 +9015,346 @@
         <v>116</v>
       </c>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B203" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="F203" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="C203" s="1" t="s">
+      <c r="G203" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="H203" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I203" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A204" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="E204" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="D203" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="F203" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="G203" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="H203" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I203" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9">
-      <c r="A204" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="B204" s="1" t="s">
+      <c r="F204" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="C204" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="F204" s="1" t="s">
+      <c r="G204" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="G204" s="1" t="s">
+      <c r="H204" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I204" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A205" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="H204" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I204" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9">
-      <c r="A205" s="1" t="s">
+      <c r="B205" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="C205" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="C205" s="1" t="s">
+      <c r="D205" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="E205" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="D205" s="1" t="s">
+      <c r="F205" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="G205" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="H205" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I205" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A206" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="E206" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="E205" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="F205" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="G205" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="H205" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I205" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9">
-      <c r="A206" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="B206" s="1" t="s">
+      <c r="F206" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="C206" s="1" t="s">
+      <c r="G206" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="H206" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I206" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A207" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E207" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="D206" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="F206" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="G206" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="H206" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I206" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9">
-      <c r="A207" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="B207" s="1" t="s">
+      <c r="F207" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="C207" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="F207" s="1" t="s">
+      <c r="G207" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="G207" s="1" t="s">
+      <c r="H207" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I207" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A208" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="H207" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I207" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9">
-      <c r="A208" s="1" t="s">
+      <c r="B208" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="C208" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="C208" s="1" t="s">
+      <c r="D208" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="E208" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="D208" s="1" t="s">
+      <c r="F208" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="H208" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I208" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A209" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="H209" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I209" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A210" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E210" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="E208" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="F208" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="G208" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="H208" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I208" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9">
-      <c r="A209" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="C209" s="1" t="s">
+      <c r="F210" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="H210" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I210" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A211" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="E211" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="D209" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="F209" s="1" t="s">
-        <v>863</v>
-      </c>
-      <c r="G209" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="H209" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I209" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9">
-      <c r="A210" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>865</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="F210" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="G210" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="H210" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I210" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9">
-      <c r="A211" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="B211" s="1" t="s">
+      <c r="F211" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="C211" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="D211" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="F211" s="1" t="s">
+      <c r="G211" s="1" t="s">
         <v>869</v>
       </c>
-      <c r="G211" s="1" t="s">
+      <c r="H211" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I211" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A212" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="H211" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I211" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9">
-      <c r="A212" s="1" t="s">
+      <c r="B212" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="C212" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="C212" s="1" t="s">
+      <c r="D212" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="E212" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="D212" s="1" t="s">
+      <c r="F212" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="H212" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I212" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A213" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="E213" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="E212" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="F212" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="G212" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="H212" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I212" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9">
-      <c r="A213" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="B213" s="1" t="s">
+      <c r="F213" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="C213" s="1" t="s">
+      <c r="G213" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="H213" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I213" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A214" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="E214" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="D213" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="F213" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="G213" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="H213" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I213" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9">
-      <c r="A214" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="B214" s="1" t="s">
+      <c r="F214" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="C214" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="D214" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="E214" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="F214" s="1" t="s">
+      <c r="G214" s="1" t="s">
         <v>881</v>
-      </c>
-      <c r="G214" s="1" t="s">
-        <v>882</v>
       </c>
       <c r="H214" s="1" t="s">
         <v>11</v>

--- a/author_contributions.xlsx
+++ b/author_contributions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olavobohreramaral/Dropbox/Brazilian Reproducibility Initiative/Manuscrito/Documents for deposit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olavobohreramaral/Dropbox/dataverse_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F351D8A9-AD98-524E-8433-76C554ABF0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C669389A-5B7F-164E-AF52-A3A138C05629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="28260" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="886">
   <si>
     <t>Lab</t>
   </si>
@@ -224,9 +224,6 @@
     <t>LAB01</t>
   </si>
   <si>
-    <t>Natália Iorio Lopes Pontes Póvoa</t>
-  </si>
-  <si>
     <t>MTT18</t>
   </si>
   <si>
@@ -236,9 +233,6 @@
     <t>Nova Friburgo Health Institute - Fluminense Federal University, Nova Friburgo, Brazil</t>
   </si>
   <si>
-    <t>0000-0002-1783-8841</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/1333708671677379</t>
   </si>
   <si>
@@ -251,18 +245,12 @@
     <t>MTT18,  MTT42</t>
   </si>
   <si>
-    <t>0000-0002-2759-2216</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/3238287761987937</t>
   </si>
   <si>
     <t>Mychelle Pacheco de Souza</t>
   </si>
   <si>
-    <t>0009-0008-3464-7730</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/5505889132609283</t>
   </si>
   <si>
@@ -281,27 +269,18 @@
     <t>Center for Health Sciences - Federal University of Espírito Santo, Vitória, Brazil</t>
   </si>
   <si>
-    <t>0000-0002-4991-5231</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/5680106427298626</t>
   </si>
   <si>
     <t>Júlia Grigorini Mori Ayub</t>
   </si>
   <si>
-    <t>0000-0002-9639-8492</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/3142599866394638</t>
   </si>
   <si>
     <t>Vanessa Beijamini</t>
   </si>
   <si>
-    <t>0000-0003-4533-0495</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/5077271160260796</t>
   </si>
   <si>
@@ -332,9 +311,6 @@
     <t>Federal University of Rio de Janeiro, Rio de Janeiro, Brazil; National Institute of Cardiology, Rio de Janeiro, Brazil</t>
   </si>
   <si>
-    <t>0000-0002-8385-1403</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/3293087208491747</t>
   </si>
   <si>
@@ -353,36 +329,24 @@
     <t>Experimental Research Center - Hospital de Clínicas de Porto Alegre, Porto Alegre, Brazil</t>
   </si>
   <si>
-    <t>0000-0002-8362-5799</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/0100912956685943</t>
   </si>
   <si>
     <t>Guilherme Curi Aiub Casagrande</t>
   </si>
   <si>
-    <t>0000-0002-8160-2227</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/4626366811847303</t>
   </si>
   <si>
     <t>Karoline dos Santos Rodrigues</t>
   </si>
   <si>
-    <t>0000-0002-3230-9673</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/3712822469287513</t>
   </si>
   <si>
     <t>Michael Everton Andrades</t>
   </si>
   <si>
-    <t>0000-0003-0337-9661</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/2187407732553477</t>
   </si>
   <si>
@@ -578,27 +542,18 @@
     <t>PCR61, PCR114, PCR79</t>
   </si>
   <si>
-    <t>0000-0002-5207-2896</t>
-  </si>
-  <si>
     <t> http://lattes.cnpq.br/2571061921926265</t>
   </si>
   <si>
     <t>Tania Maria Ortiga-Carvalho</t>
   </si>
   <si>
-    <t>0000-0002-0225-1132</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/4392742123368877</t>
   </si>
   <si>
     <t>Victória Regina de Siqueira Monteiro</t>
   </si>
   <si>
-    <t>0000-0002-2079-8238</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/1524825983984985</t>
   </si>
   <si>
@@ -617,27 +572,18 @@
     <t>Department of Pharmacology - Federal University of Rio Grande do Sul, Porto Alegre, Brazil</t>
   </si>
   <si>
-    <t>0000-0002-0330-0741</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/0872269852862450</t>
   </si>
   <si>
     <t>Matheus Gallas-Lopes</t>
   </si>
   <si>
-    <t>0000-0001-5375-2335</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/4154743414245084</t>
   </si>
   <si>
     <t>Rafael Chitolina</t>
   </si>
   <si>
-    <t>0000-0002-3264-9045</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/9521455100480688</t>
   </si>
   <si>
@@ -653,27 +599,18 @@
     <t>Oswaldo Cruz Institute - Oswaldo Cruz Foundation, Rio de Janeiro, Brazil</t>
   </si>
   <si>
-    <t>0000-0002-3299-8667</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/2073740624133790</t>
   </si>
   <si>
     <t>Flávio Alves Lara</t>
   </si>
   <si>
-    <t>0000-0002-2717-6597</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/8668020050326114</t>
   </si>
   <si>
     <t>Leticia Miranda Santos Lery</t>
   </si>
   <si>
-    <t>0000-0002-5733-8294</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/8802601655796070</t>
   </si>
   <si>
@@ -683,9 +620,6 @@
     <t>MTT86</t>
   </si>
   <si>
-    <t>000-0002-7339-259x</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/8528399413830838</t>
   </si>
   <si>
@@ -701,27 +635,18 @@
     <t>Multidisciplinary Research Center in Biology - Federal University of Rio de Janeiro, Rio de Janeiro, Brazil</t>
   </si>
   <si>
-    <t>0000-0003-2508-6659</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/7086431348786803</t>
   </si>
   <si>
     <t>Fernanda Magalhães Ferrão</t>
   </si>
   <si>
-    <t>0000-0001-5163-321X</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/1382384106687395</t>
   </si>
   <si>
     <t>Julia Mello Barros</t>
   </si>
   <si>
-    <t>0000-0001-9344-1216</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/9875257023256306</t>
   </si>
   <si>
@@ -731,9 +656,6 @@
     <t>MTT83</t>
   </si>
   <si>
-    <t>0000-0001-9794-2667</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/4448905235694861</t>
   </si>
   <si>
@@ -749,18 +671,12 @@
     <t>Clinical and Functional Genomics Laboratory - A.C. Camargo Cancer Center, São Paulo, Brazil</t>
   </si>
   <si>
-    <t>0000-0003-1714-4185</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/9658663665671141</t>
   </si>
   <si>
     <t>Tiago Goss Dos Santos</t>
   </si>
   <si>
-    <t>0000-0001-6641-7413</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/7634526007103037</t>
   </si>
   <si>
@@ -797,9 +713,6 @@
     <t>Beatriz Gonçalves Silva Rocha</t>
   </si>
   <si>
-    <t>0000-0001-8332-1106</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/1515982064183537</t>
   </si>
   <si>
@@ -908,9 +821,6 @@
     <t>Department of Pharmacology - Federal University of Paraná, Curitiba, Brazil</t>
   </si>
   <si>
-    <t>0000-0002-5634-609X</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/9132281842541987</t>
   </si>
   <si>
@@ -926,9 +836,6 @@
     <t>Roberto Andreatini</t>
   </si>
   <si>
-    <t>0000-0002-8661-9132</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/5692338901926342</t>
   </si>
   <si>
@@ -1088,9 +995,6 @@
     <t>MTT87, PCR29</t>
   </si>
   <si>
-    <t>0009-0002-8744-9240</t>
-  </si>
-  <si>
     <t> http://lattes.cnpq.br/9013884774470880</t>
   </si>
   <si>
@@ -1118,9 +1022,6 @@
     <t>Institute of Biology - Fluminense Federal University - Niterói, Brazil</t>
   </si>
   <si>
-    <t>0000-0003-3955-9568</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/2403433560830287</t>
   </si>
   <si>
@@ -1133,9 +1034,6 @@
     <t>Lucianne Fragel Madeira</t>
   </si>
   <si>
-    <t>0000-0001-6747-2828</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/2409980059036490</t>
   </si>
   <si>
@@ -1226,9 +1124,6 @@
     <t>Department of Biochemistry and Immunology - Ribeirão Preto Medical School - University of São Paulo, Ribeirão Preto, Brazil.</t>
   </si>
   <si>
-    <t>0000-0002-7444-9156</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/7883429175112921</t>
   </si>
   <si>
@@ -1244,9 +1139,6 @@
     <t>Silvana Chedraoui Silva</t>
   </si>
   <si>
-    <t>0009-0003-0667-1729</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/1492745474848294</t>
   </si>
   <si>
@@ -1361,9 +1253,6 @@
     <t>Department of Biochemistry - Paulista School of Medicine - Federal University of São Paulo, São Paulo, Brazil</t>
   </si>
   <si>
-    <t>0000-0001-6287-916X</t>
-  </si>
-  <si>
     <t> http://lattes.cnpq.br/6155537170968904</t>
   </si>
   <si>
@@ -1379,18 +1268,12 @@
     <t>Priscila Nicolicht-Amorim</t>
   </si>
   <si>
-    <t>0000-0002-5459-7549</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/2045104800186586</t>
   </si>
   <si>
     <t>Thabatta Karollynne Estevam Nakamura</t>
   </si>
   <si>
-    <t>0000-0002-0193-9680</t>
-  </si>
-  <si>
     <t> http://lattes.cnpq.br/0846758053296904</t>
   </si>
   <si>
@@ -1403,6 +1286,9 @@
     <t>PCR23, PCR40, PCR139</t>
   </si>
   <si>
+    <t>Faculty of Applied Sciences - University of Campinas, Campinas, Brazil</t>
+  </si>
+  <si>
     <t>https://orcid.org/0000-0001-5185-0185</t>
   </si>
   <si>
@@ -1493,9 +1379,6 @@
     <t>MTT45, MTT86</t>
   </si>
   <si>
-    <t>0000-0002-4219-7636</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/9572842724240318</t>
   </si>
   <si>
@@ -1511,9 +1394,6 @@
     <t>Department of Physiological Sciences - Federal University of São Carlos, São Carlos, Brazil</t>
   </si>
   <si>
-    <t>0000-0001-8047-8482</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/3465406543529253</t>
   </si>
   <si>
@@ -1526,9 +1406,6 @@
     <t>Department of Physiological Sciences - Federal University of São Carlos, São Carlos, Brazil; Molecular Oncology Research Center, Barretos Cancer Hospital, Barretos, Brazil</t>
   </si>
   <si>
-    <t>0000-0002-8213-2159</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/3613731328474011</t>
   </si>
   <si>
@@ -1541,9 +1418,6 @@
     <t>PCR114, PCR16, PCR61, MTT56</t>
   </si>
   <si>
-    <t>0000-0002-7302-4498</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/8523792836993725</t>
   </si>
   <si>
@@ -1553,9 +1427,6 @@
     <t>Department of Physiological Sciences - Federal University of São Carlos, São Carlos, Brazil; Brazilian Center For Research in Energy and Materials, Campinas, Brazil</t>
   </si>
   <si>
-    <t>0000-0002-1056-8236</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/5086502291555528</t>
   </si>
   <si>
@@ -1568,9 +1439,6 @@
     <t>PCR114, PCR61</t>
   </si>
   <si>
-    <t>0000-0002-7764-2736</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/4835384433555310</t>
   </si>
   <si>
@@ -1580,18 +1448,12 @@
     <t>PCR114, PCR61, PCR16, MTT56</t>
   </si>
   <si>
-    <t>0000-0002-2372-7814</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/4065824911933203</t>
   </si>
   <si>
     <t>Wanessa Fernanda Altei</t>
   </si>
   <si>
-    <t>0000-0002-6636-7951</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/3727790337302830</t>
   </si>
   <si>
@@ -1607,9 +1469,6 @@
     <t>BioInnova Laboratory - Biomolecular Tests and Solutions, São Paulo, Brazil</t>
   </si>
   <si>
-    <t>0000-0002-9425-1593</t>
-  </si>
-  <si>
     <t> http://lattes.cnpq.br/1307015611946132</t>
   </si>
   <si>
@@ -1619,27 +1478,18 @@
     <t>Catholic University of Brasília - Brasília, Brazil</t>
   </si>
   <si>
-    <t>0000 0003 4347 6853</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/1190292525097613</t>
   </si>
   <si>
     <t>Rosangela Vieira de Andrade</t>
   </si>
   <si>
-    <t>0000-0002-5979-535X</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/7639713789458294</t>
   </si>
   <si>
     <t>Rosiane Andrade Costa</t>
   </si>
   <si>
-    <t>0000-0002-1739-3731</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/6985923669298523</t>
   </si>
   <si>
@@ -1688,27 +1538,18 @@
     <t>Center for Translational Research in Oncology - Cancer Institute of the State of São Paulo (ICESP) - Clinical Hospital of the University of São Paulo Medical School, São Paulo, Brazil; Comprehensive Center for Precision Oncology, University of São Paulo, Brazil</t>
   </si>
   <si>
-    <t>0000-0002-4625-6082</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/5518353231403232</t>
   </si>
   <si>
     <t>Roger Chammas</t>
   </si>
   <si>
-    <t>0000-0003-0342-8726</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/6888998874990744</t>
   </si>
   <si>
     <t>Tharcísio Citrângulo Tortelli Junior</t>
   </si>
   <si>
-    <t>0000-0002-4678-8935</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/7720583409346437</t>
   </si>
   <si>
@@ -1736,27 +1577,18 @@
     <t>René Rachou Institute - Oswaldo Cruz Foundation, Belo Horizonte, Brazil</t>
   </si>
   <si>
-    <t>0000-0002-0412-7960</t>
-  </si>
-  <si>
     <t> http://lattes.cnpq.br/9864445765605351</t>
   </si>
   <si>
     <t>Jeronimo Marteleto Nunes Rugani</t>
   </si>
   <si>
-    <t>0000-0003-1050-4061</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/1071308096970456</t>
   </si>
   <si>
     <t>Rubens Lima do Monte-Neto</t>
   </si>
   <si>
-    <t>0000-0002-4688-2462</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/2817016666672297</t>
   </si>
   <si>
@@ -1772,9 +1604,6 @@
     <t>Department of Physiology - Institute of Biosciences - University of São Paulo, São Paulo, Brazil</t>
   </si>
   <si>
-    <t>0000-0002-2065-8198</t>
-  </si>
-  <si>
     <t>https://lattes.cnpq.br/3280526055758093</t>
   </si>
   <si>
@@ -1784,54 +1613,36 @@
     <t>PCR16, PCR139, PCR158, PCR175</t>
   </si>
   <si>
-    <t>0000-0002-0668-3063</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/5388575335807308</t>
   </si>
   <si>
     <t>Leonardo Vinicius Monteiro de Assis</t>
   </si>
   <si>
-    <t>0000-0001-5209-0835</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/7671129215186215</t>
   </si>
   <si>
     <t>Letícia de Oliveira Marinho da Silva</t>
   </si>
   <si>
-    <t>0009-0002-6995-522X</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/6462323045508965</t>
   </si>
   <si>
     <t>Leticia Menezes Vasconcelos</t>
   </si>
   <si>
-    <t>0000-0002-2029-6246</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/1457543038860013</t>
   </si>
   <si>
     <t>Maria Nathália Moraes</t>
   </si>
   <si>
-    <t>0000-0003-2479-4477</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/6261656708116218</t>
   </si>
   <si>
     <t>Miriane Avelino Silva</t>
   </si>
   <si>
-    <t>0000-0003-4668-3487</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/8619796681303865</t>
   </si>
   <si>
@@ -1847,9 +1658,6 @@
     <t>Butantan Institute, São Paulo, Brazil</t>
   </si>
   <si>
-    <t>0000-0001-8543-2299</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/5869286731366800</t>
   </si>
   <si>
@@ -1859,27 +1667,18 @@
     <t>MTT56, MTT60</t>
   </si>
   <si>
-    <t>0000-0003-0466-8879</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/5439604707221039</t>
   </si>
   <si>
     <t>Juliana Nunes Roson</t>
   </si>
   <si>
-    <t>0000-0002-3505-6106</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/3535401560274603</t>
   </si>
   <si>
     <t>Natália Karla Bellini</t>
   </si>
   <si>
-    <t>0000-0003-2408-3210</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/2749578356832706</t>
   </si>
   <si>
@@ -1895,18 +1694,12 @@
     <t>Center for Technological Development in Health - Institute of Drug Technology - Oswaldo Cruz Foundation, Rio de Janeiro, Brazil</t>
   </si>
   <si>
-    <t>0000-0003-0209-4410</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/9704956124553040</t>
   </si>
   <si>
     <t>Thadeu Estevam Moreira Maramaldo Costa</t>
   </si>
   <si>
-    <t>0000-0002-8408-7355</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/7826687495703990</t>
   </si>
   <si>
@@ -1919,27 +1712,18 @@
     <t>EPM05, EPM11, EPM25</t>
   </si>
   <si>
-    <t>0000-0003-1739-9479</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/3520075210071775</t>
   </si>
   <si>
     <t>Fernanda Nogueira Lotz</t>
   </si>
   <si>
-    <t>0000-0002-8245-6348</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/9154240413917431</t>
   </si>
   <si>
     <t>Jorge Alberto Quillfeldt</t>
   </si>
   <si>
-    <t>0000-0002-6731-558X</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/9645409237037238</t>
   </si>
   <si>
@@ -1955,27 +1739,18 @@
     <t>Laboratory of Medicinal and Computational Chemistry - São Carlos Institute of Physics, University of São Paulo, São Carlos, Brazil</t>
   </si>
   <si>
-    <t>0000-0002-6545-608X</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/6096279750824924</t>
   </si>
   <si>
     <t>Adriano Defini Andricopulo</t>
   </si>
   <si>
-    <t>0000-0002-0457-818X</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/5598322661148873</t>
   </si>
   <si>
     <t>Simone Michelan-Duarte</t>
   </si>
   <si>
-    <t>0000-0003-3132-1037</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/3194291973874319</t>
   </si>
   <si>
@@ -1991,27 +1766,18 @@
     <t>Department of Biotechnology - Federal University of Paraíba, João Pessoa, Brazil</t>
   </si>
   <si>
-    <t>0000-0001-9041-0641</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/4249698859076557</t>
   </si>
   <si>
     <t>Demetrius Antonio Machado De Araújo</t>
   </si>
   <si>
-    <t>0000-0001-7320-7203</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/4795833304329411</t>
   </si>
   <si>
     <t>Micheline Freire Donato</t>
   </si>
   <si>
-    <t>0000-0003-0841-442X</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/8164809353750371</t>
   </si>
   <si>
@@ -2102,27 +1868,18 @@
     <t>Cell Signaling Laboratory - Department of Biological Sciences - Federal University of Ouro Preto, Ouro Preto, Brazil</t>
   </si>
   <si>
-    <t>0000-0003-0658-5604</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/6101822765357898</t>
   </si>
   <si>
     <t>Isabela Alcântara Barretto Araújo Jardim</t>
   </si>
   <si>
-    <t>0000-0001-8691-5225</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/4705369709971780</t>
   </si>
   <si>
     <t>Mauro César Isoldi</t>
   </si>
   <si>
-    <t>0000-0003-4961-5332</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/5190322396449445</t>
   </si>
   <si>
@@ -2141,9 +1898,6 @@
     <t>Federal University of Pelotas - Pelotas, Brazil</t>
   </si>
   <si>
-    <t>0000-0002-2429-3309</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/7606326504123678</t>
   </si>
   <si>
@@ -2153,9 +1907,6 @@
     <t>Cardiovascular Physiology Laboratory - Department of Biological Sciences - Federal University of Ouro Preto, Ouro Preto, Brazil</t>
   </si>
   <si>
-    <t>0000-0003-0286-0621</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/0686593563132119</t>
   </si>
   <si>
@@ -2171,9 +1922,6 @@
     <t>EPM31, EPM37 (LAB76), EPM11, EPM25 (LAB83)</t>
   </si>
   <si>
-    <t>0000-0003-2941-9115</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/2466699899497570</t>
   </si>
   <si>
@@ -2291,27 +2039,18 @@
     <t>Laboratory of Molecular Neuroendocrinology - Department of Biophysics - Federal University of São Paulo, São Paulo, Brazil</t>
   </si>
   <si>
-    <t>0000-0003-4517-6221</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/7081349017203771</t>
   </si>
   <si>
     <t>Carlos Eduardo Neves Girardi</t>
   </si>
   <si>
-    <t>0000-0002-1739-6924</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/0014777128958249</t>
   </si>
   <si>
     <t>Rodrigo Rorato</t>
   </si>
   <si>
-    <t>0000-0002-1327-9501</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/1959394520283383</t>
   </si>
   <si>
@@ -2324,18 +2063,12 @@
     <t>EPM11, EPM25</t>
   </si>
   <si>
-    <t>0000-0002-3252-2378</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/2967365816605192</t>
   </si>
   <si>
     <t>Fernanda Cacilda dos Santos Silva</t>
   </si>
   <si>
-    <t>0000-0002-7316-8803</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/6886941920739998</t>
   </si>
   <si>
@@ -2351,9 +2084,6 @@
     <t>Tumor Biology Laboratory - State University of Western Paraná, Francisco Beltrão, Brazil</t>
   </si>
   <si>
-    <t>0000-0002-0104-4369</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/6647155856678648</t>
   </si>
   <si>
@@ -2363,9 +2093,6 @@
     <t>Institute of Biosciences - São Paulo State University, Botucatu, Brazil</t>
   </si>
   <si>
-    <t>0000-0002-7461-8773</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/2646377436835972</t>
   </si>
   <si>
@@ -2375,9 +2102,6 @@
     <t>Department of Structural and Functional Biology - Institute of Biosciences - São Paulo State University, São Paulo, Brazil</t>
   </si>
   <si>
-    <t>0000-0002-0199-3396</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/5121319676503034</t>
   </si>
   <si>
@@ -2405,9 +2129,6 @@
     <t>Biomarkers Laboratory - Federal University of Pelotas, Pelotas, Brazil</t>
   </si>
   <si>
-    <t>0000-0001-5945-3723</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/8828875564145245</t>
   </si>
   <si>
@@ -2420,27 +2141,18 @@
     <t>Neurochemistry, Inflammation, and Cancer Laboratory - Federal University of Pelotas, Pelotas, Brazil</t>
   </si>
   <si>
-    <t>0000-0001-8662-7661</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/9680216084697064</t>
   </si>
   <si>
     <t>Rejane Giacomelli Tavares</t>
   </si>
   <si>
-    <t>0000-0002-9806-1893</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/1865502428478547</t>
   </si>
   <si>
     <t>Roselia Maria Spanevello</t>
   </si>
   <si>
-    <t>0000-0002-5117-2000</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/3446031341157893</t>
   </si>
   <si>
@@ -2531,36 +2243,24 @@
     <t>Federal University of Santa Catarina, Florianópolis, Brazil</t>
   </si>
   <si>
-    <t>0000-0003-0559-9043</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/4409058587551410</t>
   </si>
   <si>
     <t>Morgana Duarte da Silva</t>
   </si>
   <si>
-    <t>0000-0002-2487-236X</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/9224466302319645</t>
   </si>
   <si>
     <t>Scheila Iria Kraus</t>
   </si>
   <si>
-    <t>0000-0001-6037-4184</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/1478604249253797</t>
   </si>
   <si>
     <t>Vinícius Alexandre Wippel</t>
   </si>
   <si>
-    <t>0009-0002-0851-5060</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/6382633200694422</t>
   </si>
   <si>
@@ -2576,27 +2276,18 @@
     <t>Hospital de Clínicas de Porto Alegre - Federal University of Rio Grande do Sul, Porto Alegre, Brazil</t>
   </si>
   <si>
-    <t>0000-0003-0348-3100</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/5117984254473107</t>
   </si>
   <si>
     <t>Gabriel Vasata Furtado</t>
   </si>
   <si>
-    <t>0000-0002-7063-4987</t>
-  </si>
-  <si>
     <t> http://lattes.cnpq.br/6104394970036013</t>
   </si>
   <si>
     <t>Maria Luiza Saraiva-Pereira</t>
   </si>
   <si>
-    <t>0000-0003-3905-9563</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/9303754283954464</t>
   </si>
   <si>
@@ -2660,34 +2351,349 @@
     <t>Research Group on Development of Pharmaceutical Products - Center for Biological and Health Sciences - Federal University of Western Bahia, Barreiras, Brazil</t>
   </si>
   <si>
-    <t>0009-0004-4599-275X</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/9705417757863870</t>
   </si>
   <si>
     <t>Gustavo Roberto Villas-Boas</t>
   </si>
   <si>
-    <t>0000-0003-1660-6480</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/3457898583538554</t>
   </si>
   <si>
     <t>Pablinny Moreira Galdino de Carvalho</t>
   </si>
   <si>
-    <t>0000-0003-2836-5565</t>
-  </si>
-  <si>
     <t>http://lattes.cnpq.br/4337128261527797</t>
   </si>
   <si>
-    <t>D'Or Institute for Research and Education - Rio de Janeiro, Brazil; Department of Genetics, Institute of Biology, Federal University of Rio de Janeiro</t>
-  </si>
-  <si>
-    <t>Faculty of Applied Sciences - University of Campinas, Limeira, Brazil</t>
+    <t>Natália Lopes Pontes Póvoa Iorio</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0001-5339-534X</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-2759-2216</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0009-0008-3464-7730</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-4991-5231</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-9639-8492</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0003-4533-0495</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-8385-1403</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-8362-5799</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-8160-2227</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-3230-9673</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0003-0337-9661</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-5207-2896</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-0225-1132</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-2079-8238</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-0330-0741</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0001-5375-2335</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-3264-9045</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-3299-8667</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-2717-6597</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-5733-8294</t>
+  </si>
+  <si>
+    <t>https://orcid.org/000-0002-7339-259x</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0003-2508-6659</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0001-5163-321X</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0001-9344-1216</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0001-9794-2667</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0003-1714-4185</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0001-6641-7413</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0001-8332-1106</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-5634-609X</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-8661-9132</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0009-0002-8744-9240</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0003-3955-9568</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0001-6747-2828</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-7444-9156</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0009-0003-0667-1729</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0001-6287-916X</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-5459-7549</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-0193-9680</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-4219-7636</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0001-8047-8482</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-8213-2159</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-7302-4498</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-1056-8236</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-7764-2736</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-2372-7814</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-6636-7951</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-9425-1593</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000 0003 4347 6853</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-5979-535X</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-1739-3731</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-4625-6082</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0003-0342-8726</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-4678-8935</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-0412-7960</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0003-1050-4061</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-4688-2462</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-2065-8198</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-0668-3063</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0001-5209-0835</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0009-0002-6995-522X</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-2029-6246</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0003-2479-4477</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0003-4668-3487</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0001-8543-2299</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0003-0466-8879</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-3505-6106</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0003-2408-3210</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0003-0209-4410</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-8408-7355</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0003-1739-9479</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-8245-6348</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-6731-558X</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-6545-608X</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-0457-818X</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0003-3132-1037</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0001-9041-0641</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0001-7320-7203</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0003-0841-442X</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0003-0658-5604</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0001-8691-5225</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0003-4961-5332</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-2429-3309</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0003-0286-0621</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0003-2941-9115</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0003-4517-6221</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-1739-6924</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-1327-9501</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-3252-2378</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-7316-8803</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-0104-4369</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-7461-8773</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-0199-3396</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0001-5945-3723</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0001-8662-7661</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-9806-1893</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-5117-2000</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0003-0559-9043</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-2487-236X</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0001-6037-4184</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0009-0002-0851-5060</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0003-0348-3100</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-7063-4987</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0003-3905-9563</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0009-0004-4599-275X</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0003-1660-6480</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0003-2836-5565</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0009-0005-0193-5224</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-9531-1914</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-9771-977X</t>
   </si>
 </sst>
 </file>
@@ -2790,7 +2796,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2828,6 +2834,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3135,9 +3142,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L214"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E109" sqref="E109"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3507,28 +3514,28 @@
         <v>61</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="13" t="s">
+        <v>777</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="H13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -3536,28 +3543,28 @@
         <v>61</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="H14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -3565,1594 +3572,1594 @@
         <v>61</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>74</v>
+        <v>779</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="F16" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="H16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="F17" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="H17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="F18" s="1" t="s">
-        <v>87</v>
+        <v>782</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>94</v>
+        <v>883</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="F20" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>105</v>
+        <v>784</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>108</v>
+        <v>785</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="H23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="H24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="F34" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="H34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="F35" s="1" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="G37" s="1" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>180</v>
+        <v>788</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>183</v>
+        <v>789</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>186</v>
+        <v>790</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>193</v>
+        <v>791</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>196</v>
+        <v>792</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>199</v>
+        <v>793</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>205</v>
+        <v>794</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>208</v>
+        <v>795</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>211</v>
+        <v>796</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>215</v>
+        <v>797</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>221</v>
+        <v>798</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>224</v>
+        <v>799</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>227</v>
+        <v>800</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>231</v>
+        <v>801</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>237</v>
+        <v>802</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>240</v>
+        <v>803</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>94</v>
+        <v>884</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>253</v>
+        <v>804</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>290</v>
+        <v>805</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>296</v>
+        <v>806</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>297</v>
+        <v>266</v>
       </c>
       <c r="H68" s="5" t="s">
         <v>11</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:12" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>298</v>
+        <v>267</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>301</v>
+        <v>270</v>
       </c>
       <c r="H69" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
@@ -5160,4207 +5167,4207 @@
     </row>
     <row r="70" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>304</v>
+        <v>273</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>304</v>
+        <v>273</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
       <c r="H70" s="5" t="s">
         <v>11</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>304</v>
+        <v>273</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>304</v>
+        <v>273</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>309</v>
+        <v>278</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>311</v>
+        <v>280</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>304</v>
+        <v>273</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>304</v>
+        <v>273</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>312</v>
+        <v>281</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>304</v>
+        <v>273</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>304</v>
+        <v>273</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>317</v>
+        <v>286</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>321</v>
+        <v>290</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>317</v>
+        <v>286</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>323</v>
+        <v>292</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>324</v>
+        <v>293</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>324</v>
+        <v>293</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>325</v>
+        <v>294</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>326</v>
+        <v>295</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>327</v>
+        <v>296</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>329</v>
+        <v>298</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>330</v>
+        <v>299</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>333</v>
+        <v>302</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>334</v>
+        <v>303</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>335</v>
+        <v>304</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>337</v>
+        <v>306</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>338</v>
+        <v>307</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>339</v>
+        <v>308</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>340</v>
+        <v>309</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>343</v>
+        <v>312</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>344</v>
+        <v>313</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>346</v>
+        <v>315</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>348</v>
+        <v>317</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>349</v>
+        <v>318</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>350</v>
+        <v>807</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>357</v>
+        <v>325</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>358</v>
+        <v>326</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>358</v>
+        <v>326</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>360</v>
+        <v>808</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>361</v>
+        <v>328</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>362</v>
+        <v>329</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>358</v>
+        <v>326</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>363</v>
+        <v>330</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>358</v>
+        <v>326</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>358</v>
+        <v>326</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>365</v>
+        <v>809</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>366</v>
+        <v>332</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>367</v>
+        <v>333</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>368</v>
+        <v>334</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>369</v>
+        <v>335</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>371</v>
+        <v>337</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>372</v>
+        <v>338</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>367</v>
+        <v>333</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>374</v>
+        <v>340</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>369</v>
+        <v>335</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>369</v>
+        <v>335</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>375</v>
+        <v>341</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>376</v>
+        <v>342</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>377</v>
+        <v>343</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>367</v>
+        <v>333</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>378</v>
+        <v>344</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>379</v>
+        <v>345</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>380</v>
+        <v>346</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>375</v>
+        <v>341</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>381</v>
+        <v>347</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>377</v>
+        <v>343</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>367</v>
+        <v>333</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>382</v>
+        <v>348</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>369</v>
+        <v>335</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>384</v>
+        <v>350</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>385</v>
+        <v>351</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>367</v>
+        <v>333</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>386</v>
+        <v>352</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>375</v>
+        <v>341</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>387</v>
+        <v>353</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>388</v>
+        <v>354</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>367</v>
+        <v>333</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>389</v>
+        <v>355</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>375</v>
+        <v>341</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>390</v>
+        <v>356</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>391</v>
+        <v>357</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>392</v>
+        <v>358</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>393</v>
+        <v>359</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>394</v>
+        <v>360</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>395</v>
+        <v>361</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>396</v>
+        <v>810</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>397</v>
+        <v>362</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>392</v>
+        <v>358</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>398</v>
+        <v>363</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>394</v>
+        <v>360</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>394</v>
+        <v>360</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>395</v>
+        <v>361</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>399</v>
+        <v>364</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>400</v>
+        <v>365</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>392</v>
+        <v>358</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>401</v>
+        <v>366</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>394</v>
+        <v>360</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>394</v>
+        <v>360</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>395</v>
+        <v>361</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>402</v>
+        <v>811</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>403</v>
+        <v>367</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>404</v>
+        <v>368</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>405</v>
+        <v>369</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>406</v>
+        <v>370</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>407</v>
+        <v>371</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>408</v>
+        <v>372</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>404</v>
+        <v>368</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>409</v>
+        <v>373</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>406</v>
+        <v>370</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>410</v>
+        <v>374</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>411</v>
+        <v>375</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>404</v>
+        <v>368</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>412</v>
+        <v>376</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>406</v>
+        <v>370</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>413</v>
+        <v>377</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>414</v>
+        <v>378</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>404</v>
+        <v>368</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>415</v>
+        <v>379</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>406</v>
+        <v>370</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>416</v>
+        <v>380</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>417</v>
+        <v>381</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>418</v>
+        <v>382</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>419</v>
+        <v>383</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>420</v>
+        <v>384</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>421</v>
+        <v>385</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>422</v>
+        <v>386</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>423</v>
+        <v>387</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>424</v>
+        <v>388</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>418</v>
+        <v>382</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>425</v>
+        <v>389</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>420</v>
+        <v>384</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>422</v>
+        <v>386</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>426</v>
+        <v>390</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>427</v>
+        <v>391</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>418</v>
+        <v>382</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>428</v>
+        <v>392</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>421</v>
+        <v>385</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>421</v>
+        <v>385</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>422</v>
+        <v>386</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>429</v>
+        <v>393</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>430</v>
+        <v>394</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>418</v>
+        <v>382</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>431</v>
+        <v>395</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>421</v>
+        <v>385</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>422</v>
+        <v>386</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>432</v>
+        <v>396</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>433</v>
+        <v>397</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>418</v>
+        <v>382</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>434</v>
+        <v>398</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>421</v>
+        <v>385</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>422</v>
+        <v>386</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>435</v>
+        <v>399</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>436</v>
+        <v>400</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>437</v>
+        <v>401</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>438</v>
+        <v>402</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>439</v>
+        <v>403</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>439</v>
+        <v>403</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>440</v>
+        <v>404</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>441</v>
+        <v>812</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>442</v>
+        <v>405</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>437</v>
+        <v>401</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>443</v>
+        <v>406</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>444</v>
+        <v>407</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>440</v>
+        <v>404</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>94</v>
+        <v>885</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>445</v>
+        <v>408</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>437</v>
+        <v>401</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>446</v>
+        <v>409</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>439</v>
+        <v>403</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>439</v>
+        <v>403</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>440</v>
+        <v>404</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>447</v>
+        <v>813</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>448</v>
+        <v>410</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>437</v>
+        <v>401</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>449</v>
+        <v>411</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>439</v>
+        <v>403</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>439</v>
+        <v>403</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>440</v>
+        <v>404</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>450</v>
+        <v>814</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>451</v>
+        <v>412</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>452</v>
+        <v>413</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>453</v>
+        <v>414</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>454</v>
+        <v>415</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>454</v>
+        <v>415</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>883</v>
+        <v>416</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>455</v>
+        <v>417</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>456</v>
+        <v>418</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>452</v>
+        <v>413</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>457</v>
+        <v>419</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>458</v>
+        <v>420</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>883</v>
+        <v>416</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>459</v>
+        <v>421</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>460</v>
+        <v>422</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>452</v>
+        <v>413</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>461</v>
+        <v>423</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>454</v>
+        <v>415</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>454</v>
+        <v>415</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>883</v>
+        <v>416</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>462</v>
+        <v>424</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>463</v>
+        <v>425</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>464</v>
+        <v>426</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>465</v>
+        <v>427</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>466</v>
+        <v>428</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>468</v>
+        <v>430</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>469</v>
+        <v>431</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>464</v>
+        <v>426</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>470</v>
+        <v>432</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>471</v>
+        <v>433</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>464</v>
+        <v>426</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>473</v>
+        <v>435</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>466</v>
+        <v>428</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>474</v>
+        <v>436</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>475</v>
+        <v>437</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>464</v>
+        <v>426</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>476</v>
+        <v>438</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>466</v>
+        <v>428</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>477</v>
+        <v>439</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>464</v>
+        <v>426</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>479</v>
+        <v>441</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>466</v>
+        <v>428</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>480</v>
+        <v>442</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>481</v>
+        <v>443</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>482</v>
+        <v>444</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>484</v>
+        <v>446</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>484</v>
+        <v>446</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>485</v>
+        <v>815</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>486</v>
+        <v>447</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>487</v>
+        <v>448</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>488</v>
+        <v>449</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>489</v>
+        <v>450</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>490</v>
+        <v>451</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>491</v>
+        <v>816</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>492</v>
+        <v>452</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>487</v>
+        <v>448</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>493</v>
+        <v>453</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>494</v>
+        <v>454</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>495</v>
+        <v>455</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>496</v>
+        <v>817</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>497</v>
+        <v>456</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>487</v>
+        <v>448</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>498</v>
+        <v>457</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>499</v>
+        <v>458</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>500</v>
+        <v>459</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>495</v>
+        <v>455</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>501</v>
+        <v>818</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>502</v>
+        <v>460</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>487</v>
+        <v>448</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>503</v>
+        <v>461</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>504</v>
+        <v>462</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>505</v>
+        <v>819</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>506</v>
+        <v>463</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>487</v>
+        <v>448</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>507</v>
+        <v>464</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>508</v>
+        <v>465</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>509</v>
+        <v>466</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>490</v>
+        <v>451</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>510</v>
+        <v>820</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>511</v>
+        <v>467</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>487</v>
+        <v>448</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>512</v>
+        <v>468</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>513</v>
+        <v>469</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>513</v>
+        <v>469</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>490</v>
+        <v>451</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>514</v>
+        <v>821</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>515</v>
+        <v>470</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>487</v>
+        <v>448</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>516</v>
+        <v>471</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>494</v>
+        <v>454</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>495</v>
+        <v>455</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>517</v>
+        <v>822</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>518</v>
+        <v>472</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>519</v>
+        <v>473</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>520</v>
+        <v>474</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>521</v>
+        <v>475</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>521</v>
+        <v>475</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>523</v>
+        <v>823</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>524</v>
+        <v>477</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>519</v>
+        <v>473</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>525</v>
+        <v>478</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>521</v>
+        <v>475</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>526</v>
+        <v>479</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>527</v>
+        <v>824</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>528</v>
+        <v>480</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>519</v>
+        <v>473</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>529</v>
+        <v>481</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>521</v>
+        <v>475</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>521</v>
+        <v>475</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>526</v>
+        <v>479</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>530</v>
+        <v>825</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>531</v>
+        <v>482</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>519</v>
+        <v>473</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>532</v>
+        <v>483</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>521</v>
+        <v>475</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>521</v>
+        <v>475</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>526</v>
+        <v>479</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>533</v>
+        <v>826</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>534</v>
+        <v>484</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>536</v>
+        <v>486</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>537</v>
+        <v>487</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>538</v>
+        <v>488</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>539</v>
+        <v>489</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>540</v>
+        <v>490</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>537</v>
+        <v>487</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>537</v>
+        <v>487</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>538</v>
+        <v>488</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>541</v>
+        <v>491</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>542</v>
+        <v>492</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>543</v>
+        <v>493</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>537</v>
+        <v>487</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>882</v>
+        <v>488</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>544</v>
+        <v>494</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>545</v>
+        <v>495</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>546</v>
+        <v>496</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>547</v>
+        <v>497</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>548</v>
+        <v>498</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>548</v>
+        <v>498</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>549</v>
+        <v>499</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>550</v>
+        <v>827</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>551</v>
+        <v>500</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>546</v>
+        <v>496</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>552</v>
+        <v>501</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>548</v>
+        <v>498</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>549</v>
+        <v>499</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>553</v>
+        <v>828</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>554</v>
+        <v>502</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>546</v>
+        <v>496</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>555</v>
+        <v>503</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>548</v>
+        <v>498</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>548</v>
+        <v>498</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>549</v>
+        <v>499</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>556</v>
+        <v>829</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>557</v>
+        <v>504</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>558</v>
+        <v>505</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>559</v>
+        <v>506</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>560</v>
+        <v>507</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>560</v>
+        <v>507</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>561</v>
+        <v>508</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>562</v>
+        <v>509</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>563</v>
+        <v>510</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>564</v>
+        <v>511</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>564</v>
+        <v>511</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>565</v>
+        <v>512</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>566</v>
+        <v>830</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>567</v>
+        <v>513</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>562</v>
+        <v>509</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>568</v>
+        <v>514</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>564</v>
+        <v>511</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>564</v>
+        <v>511</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>565</v>
+        <v>512</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>569</v>
+        <v>831</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>570</v>
+        <v>515</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>562</v>
+        <v>509</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>571</v>
+        <v>516</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>564</v>
+        <v>511</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>564</v>
+        <v>511</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>565</v>
+        <v>512</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>572</v>
+        <v>832</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>573</v>
+        <v>517</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>574</v>
+        <v>518</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>575</v>
+        <v>519</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>576</v>
+        <v>520</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>577</v>
+        <v>521</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>578</v>
+        <v>833</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>579</v>
+        <v>522</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>574</v>
+        <v>518</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>580</v>
+        <v>523</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>581</v>
+        <v>524</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>577</v>
+        <v>521</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>582</v>
+        <v>834</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>583</v>
+        <v>525</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>574</v>
+        <v>518</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>584</v>
+        <v>526</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>576</v>
+        <v>520</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>577</v>
+        <v>521</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>585</v>
+        <v>835</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>586</v>
+        <v>527</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>574</v>
+        <v>518</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>587</v>
+        <v>528</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>577</v>
+        <v>521</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>588</v>
+        <v>836</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>589</v>
+        <v>529</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>574</v>
+        <v>518</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>590</v>
+        <v>530</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>577</v>
+        <v>521</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>591</v>
+        <v>837</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>592</v>
+        <v>531</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>574</v>
+        <v>518</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>593</v>
+        <v>532</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>576</v>
+        <v>520</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>577</v>
+        <v>521</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>594</v>
+        <v>838</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>595</v>
+        <v>533</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>574</v>
+        <v>518</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>596</v>
+        <v>534</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>581</v>
+        <v>524</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>577</v>
+        <v>521</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>597</v>
+        <v>839</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>598</v>
+        <v>535</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>599</v>
+        <v>536</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>600</v>
+        <v>537</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>601</v>
+        <v>538</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>602</v>
+        <v>539</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>603</v>
+        <v>840</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>604</v>
+        <v>540</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>599</v>
+        <v>536</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>605</v>
+        <v>541</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>601</v>
+        <v>538</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>606</v>
+        <v>542</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>602</v>
+        <v>539</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>607</v>
+        <v>841</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>608</v>
+        <v>543</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>599</v>
+        <v>536</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>609</v>
+        <v>544</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>601</v>
+        <v>538</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>606</v>
+        <v>542</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>602</v>
+        <v>539</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>610</v>
+        <v>842</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>611</v>
+        <v>545</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>599</v>
+        <v>536</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>612</v>
+        <v>546</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>601</v>
+        <v>538</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>606</v>
+        <v>542</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>602</v>
+        <v>539</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>613</v>
+        <v>843</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>614</v>
+        <v>547</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>615</v>
+        <v>548</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>616</v>
+        <v>549</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>617</v>
+        <v>550</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>617</v>
+        <v>550</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>618</v>
+        <v>551</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>619</v>
+        <v>844</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>620</v>
+        <v>552</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>615</v>
+        <v>548</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>621</v>
+        <v>553</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>617</v>
+        <v>550</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>617</v>
+        <v>550</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>618</v>
+        <v>551</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>622</v>
+        <v>845</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>623</v>
+        <v>554</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>624</v>
+        <v>555</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>625</v>
+        <v>556</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>626</v>
+        <v>557</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>626</v>
+        <v>557</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>627</v>
+        <v>846</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>628</v>
+        <v>558</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>624</v>
+        <v>555</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>629</v>
+        <v>559</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>626</v>
+        <v>557</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>626</v>
+        <v>557</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>630</v>
+        <v>847</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>631</v>
+        <v>560</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>624</v>
+        <v>555</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>632</v>
+        <v>561</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>626</v>
+        <v>557</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>633</v>
+        <v>848</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>634</v>
+        <v>562</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>635</v>
+        <v>563</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>636</v>
+        <v>564</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>637</v>
+        <v>565</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>637</v>
+        <v>565</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>638</v>
+        <v>566</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>639</v>
+        <v>849</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>640</v>
+        <v>567</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>635</v>
+        <v>563</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>641</v>
+        <v>568</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>637</v>
+        <v>565</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>637</v>
+        <v>565</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>638</v>
+        <v>566</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>642</v>
+        <v>850</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>643</v>
+        <v>569</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>635</v>
+        <v>563</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>644</v>
+        <v>570</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>637</v>
+        <v>565</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>637</v>
+        <v>565</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>638</v>
+        <v>566</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>645</v>
+        <v>851</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>646</v>
+        <v>571</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>647</v>
+        <v>572</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>648</v>
+        <v>573</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>649</v>
+        <v>574</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>649</v>
+        <v>574</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>651</v>
+        <v>852</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>652</v>
+        <v>576</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>647</v>
+        <v>572</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>653</v>
+        <v>577</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>649</v>
+        <v>574</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>654</v>
+        <v>853</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>655</v>
+        <v>578</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>647</v>
+        <v>572</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>656</v>
+        <v>579</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>649</v>
+        <v>574</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>649</v>
+        <v>574</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>650</v>
+        <v>575</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>657</v>
+        <v>854</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>658</v>
+        <v>580</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>659</v>
+        <v>581</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>660</v>
+        <v>582</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>661</v>
+        <v>583</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>662</v>
+        <v>584</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>663</v>
+        <v>585</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>664</v>
+        <v>586</v>
       </c>
       <c r="H159" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>659</v>
+        <v>581</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>665</v>
+        <v>587</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>661</v>
+        <v>583</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>661</v>
+        <v>583</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>662</v>
+        <v>584</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>666</v>
+        <v>588</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>667</v>
+        <v>589</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>659</v>
+        <v>581</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>668</v>
+        <v>590</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>661</v>
+        <v>583</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>661</v>
+        <v>583</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>662</v>
+        <v>584</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>669</v>
+        <v>591</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>670</v>
+        <v>592</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>671</v>
+        <v>593</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>672</v>
+        <v>594</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>673</v>
+        <v>595</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>674</v>
+        <v>596</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>675</v>
+        <v>597</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>671</v>
+        <v>593</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>676</v>
+        <v>598</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>673</v>
+        <v>595</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>673</v>
+        <v>595</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>674</v>
+        <v>596</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>677</v>
+        <v>599</v>
       </c>
       <c r="H163" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>671</v>
+        <v>593</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>678</v>
+        <v>600</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>673</v>
+        <v>595</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>674</v>
+        <v>596</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>679</v>
+        <v>601</v>
       </c>
       <c r="H164" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>671</v>
+        <v>593</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>680</v>
+        <v>602</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>673</v>
+        <v>595</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>674</v>
+        <v>596</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>681</v>
+        <v>603</v>
       </c>
       <c r="H165" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>671</v>
+        <v>593</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>682</v>
+        <v>604</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>673</v>
+        <v>595</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>673</v>
+        <v>595</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>674</v>
+        <v>596</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>683</v>
+        <v>605</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>684</v>
+        <v>606</v>
       </c>
       <c r="H166" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>685</v>
+        <v>607</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>686</v>
+        <v>608</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>687</v>
+        <v>609</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>688</v>
+        <v>855</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>689</v>
+        <v>610</v>
       </c>
       <c r="H167" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>685</v>
+        <v>607</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>690</v>
+        <v>611</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>687</v>
+        <v>609</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>691</v>
+        <v>856</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>692</v>
+        <v>612</v>
       </c>
       <c r="H168" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>685</v>
+        <v>607</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>693</v>
+        <v>613</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>687</v>
+        <v>609</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>694</v>
+        <v>857</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>695</v>
+        <v>614</v>
       </c>
       <c r="H169" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>696</v>
+        <v>615</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>697</v>
+        <v>616</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>698</v>
+        <v>617</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>699</v>
+        <v>618</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>700</v>
+        <v>619</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>701</v>
+        <v>858</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>702</v>
+        <v>620</v>
       </c>
       <c r="H170" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>696</v>
+        <v>615</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>703</v>
+        <v>621</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>698</v>
+        <v>617</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>704</v>
+        <v>622</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>705</v>
+        <v>859</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>706</v>
+        <v>623</v>
       </c>
       <c r="H171" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>707</v>
+        <v>624</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>708</v>
+        <v>625</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>709</v>
+        <v>626</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>710</v>
+        <v>627</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>704</v>
+        <v>622</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>711</v>
+        <v>860</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>712</v>
+        <v>628</v>
       </c>
       <c r="H172" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>696</v>
+        <v>615</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>713</v>
+        <v>629</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>699</v>
+        <v>618</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>704</v>
+        <v>622</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>714</v>
+        <v>630</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>715</v>
+        <v>631</v>
       </c>
       <c r="H173" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>716</v>
+        <v>632</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>717</v>
+        <v>633</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>718</v>
+        <v>634</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>719</v>
+        <v>635</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>720</v>
+        <v>636</v>
       </c>
       <c r="H174" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I174" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>716</v>
+        <v>632</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>721</v>
+        <v>637</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>718</v>
+        <v>634</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>722</v>
+        <v>638</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>723</v>
+        <v>639</v>
       </c>
       <c r="H175" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>724</v>
+        <v>640</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>725</v>
+        <v>641</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>726</v>
+        <v>642</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>727</v>
+        <v>643</v>
       </c>
       <c r="H176" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>724</v>
+        <v>640</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>728</v>
+        <v>644</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>729</v>
+        <v>645</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>730</v>
+        <v>646</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>731</v>
+        <v>647</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>732</v>
+        <v>648</v>
       </c>
       <c r="H177" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>724</v>
+        <v>640</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>733</v>
+        <v>649</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>734</v>
+        <v>650</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>726</v>
+        <v>642</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>730</v>
+        <v>646</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>735</v>
+        <v>651</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>736</v>
+        <v>652</v>
       </c>
       <c r="H178" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>724</v>
+        <v>640</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>737</v>
+        <v>653</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>734</v>
+        <v>650</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>730</v>
+        <v>646</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>738</v>
+        <v>654</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>739</v>
+        <v>655</v>
       </c>
       <c r="H179" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>724</v>
+        <v>640</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>740</v>
+        <v>656</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>729</v>
+        <v>645</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>730</v>
+        <v>646</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>741</v>
+        <v>657</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>742</v>
+        <v>658</v>
       </c>
       <c r="H180" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>724</v>
+        <v>640</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>743</v>
+        <v>659</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>744</v>
+        <v>660</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>744</v>
+        <v>660</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>730</v>
+        <v>646</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>745</v>
+        <v>661</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>746</v>
+        <v>662</v>
       </c>
       <c r="H181" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>747</v>
+        <v>663</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>748</v>
+        <v>664</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>749</v>
+        <v>665</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>749</v>
+        <v>665</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>750</v>
+        <v>666</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>751</v>
+        <v>861</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>752</v>
+        <v>667</v>
       </c>
       <c r="H182" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>747</v>
+        <v>663</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>753</v>
+        <v>668</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>749</v>
+        <v>665</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>749</v>
+        <v>665</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>750</v>
+        <v>666</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>754</v>
+        <v>862</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>755</v>
+        <v>669</v>
       </c>
       <c r="H183" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>747</v>
+        <v>663</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>756</v>
+        <v>670</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>749</v>
+        <v>665</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>749</v>
+        <v>665</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>750</v>
+        <v>666</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>757</v>
+        <v>863</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>758</v>
+        <v>671</v>
       </c>
       <c r="H184" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>759</v>
+        <v>672</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>760</v>
+        <v>673</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>761</v>
+        <v>674</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>704</v>
+        <v>622</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>762</v>
+        <v>864</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>763</v>
+        <v>675</v>
       </c>
       <c r="H185" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>759</v>
+        <v>672</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>764</v>
+        <v>676</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>761</v>
+        <v>674</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>761</v>
+        <v>674</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>704</v>
+        <v>622</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>765</v>
+        <v>865</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>766</v>
+        <v>677</v>
       </c>
       <c r="H186" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>767</v>
+        <v>678</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>768</v>
+        <v>679</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>769</v>
+        <v>680</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>769</v>
+        <v>680</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>770</v>
+        <v>681</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>771</v>
+        <v>866</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>772</v>
+        <v>682</v>
       </c>
       <c r="H187" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>767</v>
+        <v>678</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>773</v>
+        <v>683</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>769</v>
+        <v>680</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>769</v>
+        <v>680</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>774</v>
+        <v>684</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>775</v>
+        <v>867</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>776</v>
+        <v>685</v>
       </c>
       <c r="H188" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>767</v>
+        <v>678</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>777</v>
+        <v>686</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>769</v>
+        <v>680</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>769</v>
+        <v>680</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>778</v>
+        <v>687</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>779</v>
+        <v>868</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>780</v>
+        <v>688</v>
       </c>
       <c r="H189" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>767</v>
+        <v>678</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>781</v>
+        <v>689</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>769</v>
+        <v>680</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>769</v>
+        <v>680</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>782</v>
+        <v>690</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>783</v>
+        <v>691</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>784</v>
+        <v>692</v>
       </c>
       <c r="H190" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>785</v>
+        <v>693</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>786</v>
+        <v>694</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>787</v>
+        <v>695</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>787</v>
+        <v>695</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>788</v>
+        <v>696</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>789</v>
+        <v>869</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>790</v>
+        <v>697</v>
       </c>
       <c r="H191" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>785</v>
+        <v>693</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>791</v>
+        <v>698</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>792</v>
+        <v>699</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>792</v>
+        <v>699</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>793</v>
+        <v>700</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>794</v>
+        <v>870</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>795</v>
+        <v>701</v>
       </c>
       <c r="H192" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>785</v>
+        <v>693</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>796</v>
+        <v>702</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>787</v>
+        <v>695</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>787</v>
+        <v>695</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>788</v>
+        <v>696</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>797</v>
+        <v>871</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>798</v>
+        <v>703</v>
       </c>
       <c r="H193" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I193" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>785</v>
+        <v>693</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>799</v>
+        <v>704</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>787</v>
+        <v>695</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>787</v>
+        <v>695</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>793</v>
+        <v>700</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>800</v>
+        <v>872</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>801</v>
+        <v>705</v>
       </c>
       <c r="H194" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>802</v>
+        <v>706</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>803</v>
+        <v>707</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>804</v>
+        <v>708</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>805</v>
+        <v>709</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>806</v>
+        <v>710</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>807</v>
+        <v>711</v>
       </c>
       <c r="H195" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>802</v>
+        <v>706</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>808</v>
+        <v>712</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>804</v>
+        <v>708</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>809</v>
+        <v>713</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>805</v>
+        <v>709</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>810</v>
+        <v>714</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>811</v>
+        <v>715</v>
       </c>
       <c r="H196" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I196" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>802</v>
+        <v>706</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>812</v>
+        <v>716</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>804</v>
+        <v>708</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>805</v>
+        <v>709</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>813</v>
+        <v>717</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>814</v>
+        <v>718</v>
       </c>
       <c r="H197" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>815</v>
+        <v>719</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>816</v>
+        <v>720</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>817</v>
+        <v>721</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>817</v>
+        <v>721</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>818</v>
+        <v>722</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>819</v>
+        <v>723</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>820</v>
+        <v>724</v>
       </c>
       <c r="H198" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>815</v>
+        <v>719</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>821</v>
+        <v>725</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>817</v>
+        <v>721</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>817</v>
+        <v>721</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>818</v>
+        <v>722</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>822</v>
+        <v>726</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>823</v>
+        <v>727</v>
       </c>
       <c r="H199" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I199" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>815</v>
+        <v>719</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>824</v>
+        <v>728</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>817</v>
+        <v>721</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>817</v>
+        <v>721</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>818</v>
+        <v>722</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>825</v>
+        <v>729</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>826</v>
+        <v>730</v>
       </c>
       <c r="H200" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I200" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>827</v>
+        <v>731</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>828</v>
+        <v>732</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>829</v>
+        <v>733</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>829</v>
+        <v>733</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>830</v>
+        <v>734</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>831</v>
+        <v>873</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>832</v>
+        <v>735</v>
       </c>
       <c r="H201" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I201" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>827</v>
+        <v>731</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>833</v>
+        <v>736</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>829</v>
+        <v>733</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>830</v>
+        <v>734</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>834</v>
+        <v>874</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>835</v>
+        <v>737</v>
       </c>
       <c r="H202" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I202" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>827</v>
+        <v>731</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>836</v>
+        <v>738</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>829</v>
+        <v>733</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>829</v>
+        <v>733</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>830</v>
+        <v>734</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>837</v>
+        <v>875</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>838</v>
+        <v>739</v>
       </c>
       <c r="H203" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>827</v>
+        <v>731</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>839</v>
+        <v>740</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>829</v>
+        <v>733</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>829</v>
+        <v>733</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>830</v>
+        <v>734</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>840</v>
+        <v>876</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>841</v>
+        <v>741</v>
       </c>
       <c r="H204" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I204" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>842</v>
+        <v>742</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>843</v>
+        <v>743</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>844</v>
+        <v>744</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>844</v>
+        <v>744</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>845</v>
+        <v>745</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>846</v>
+        <v>877</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>847</v>
+        <v>746</v>
       </c>
       <c r="H205" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I205" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>842</v>
+        <v>742</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>848</v>
+        <v>747</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>844</v>
+        <v>744</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>844</v>
+        <v>744</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>845</v>
+        <v>745</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>849</v>
+        <v>878</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>850</v>
+        <v>748</v>
       </c>
       <c r="H206" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I206" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>842</v>
+        <v>742</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>851</v>
+        <v>749</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>844</v>
+        <v>744</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>845</v>
+        <v>745</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>852</v>
+        <v>879</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>853</v>
+        <v>750</v>
       </c>
       <c r="H207" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I207" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>854</v>
+        <v>751</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>855</v>
+        <v>752</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>856</v>
+        <v>753</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>856</v>
+        <v>753</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>857</v>
+        <v>754</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>858</v>
+        <v>755</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>859</v>
+        <v>756</v>
       </c>
       <c r="H208" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>854</v>
+        <v>751</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>860</v>
+        <v>757</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>856</v>
+        <v>753</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>856</v>
+        <v>753</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>861</v>
+        <v>758</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>862</v>
+        <v>759</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>863</v>
+        <v>760</v>
       </c>
       <c r="H209" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>854</v>
+        <v>751</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>864</v>
+        <v>761</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>856</v>
+        <v>753</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>857</v>
+        <v>754</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>865</v>
+        <v>762</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>866</v>
+        <v>763</v>
       </c>
       <c r="H210" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>854</v>
+        <v>751</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>867</v>
+        <v>764</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>856</v>
+        <v>753</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>856</v>
+        <v>753</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>857</v>
+        <v>754</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>868</v>
+        <v>765</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>869</v>
+        <v>766</v>
       </c>
       <c r="H211" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>870</v>
+        <v>767</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>871</v>
+        <v>768</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>872</v>
+        <v>769</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>872</v>
+        <v>769</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>873</v>
+        <v>770</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>875</v>
+        <v>771</v>
       </c>
       <c r="H212" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>870</v>
+        <v>767</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>876</v>
+        <v>772</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>872</v>
+        <v>769</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>872</v>
+        <v>769</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>873</v>
+        <v>770</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>878</v>
+        <v>773</v>
       </c>
       <c r="H213" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I213" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>870</v>
+        <v>767</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>879</v>
+        <v>774</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>872</v>
+        <v>769</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>872</v>
+        <v>769</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>873</v>
+        <v>770</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>881</v>
+        <v>775</v>
       </c>
       <c r="H214" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/author_contributions.xlsx
+++ b/author_contributions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olavobohreramaral/Dropbox/dataverse_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C669389A-5B7F-164E-AF52-A3A138C05629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA88D08-A474-254E-A1C3-72E5AB33AEAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="28260" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="887">
   <si>
     <t>Lab</t>
   </si>
@@ -2694,6 +2694,9 @@
   </si>
   <si>
     <t>https://orcid.org/0000-0002-9771-977X</t>
+  </si>
+  <si>
+    <t>Hired by funder during project</t>
   </si>
 </sst>
 </file>
@@ -2796,7 +2799,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2834,7 +2837,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3142,9 +3144,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F104" sqref="F104"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3242,7 +3244,7 @@
         <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>886</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>20</v>
@@ -3271,7 +3273,7 @@
         <v>23</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>11</v>
+        <v>886</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>20</v>
@@ -3525,7 +3527,7 @@
       <c r="E13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" t="s">
         <v>777</v>
       </c>
       <c r="G13" s="3" t="s">
